--- a/Lib_Repo_Excel/FileExcel_Digisales/SCD0171_Menu BNI Multifinance.xlsx
+++ b/Lib_Repo_Excel/FileExcel_Digisales/SCD0171_Menu BNI Multifinance.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1442\Desktop\DigiSales\Lib_Repo_Excel\FileExcel_Digisales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34E7DE50-2B8B-4C10-A299-703BC8D16EE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3DFC94A-B2DE-4EA4-8DDF-B69D7DFDE8FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4110" yWindow="3615" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SCD0171" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>RUN</t>
   </si>
@@ -133,6 +133,9 @@
  · Car Ownership Program (COP)
  · Motorcycle Ownership Program (MOP)
  · Computer/Laptop Ownership Program (COOP)</t>
+  </si>
+  <si>
+    <t>TEXT3</t>
   </si>
 </sst>
 </file>
@@ -541,7 +544,7 @@
   <dimension ref="A1:R7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+      <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -607,6 +610,9 @@
       </c>
       <c r="M1" t="s">
         <v>13</v>
+      </c>
+      <c r="N1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="66" customHeight="1" x14ac:dyDescent="0.25">

--- a/Lib_Repo_Excel/FileExcel_Digisales/SCD0171_Menu BNI Multifinance.xlsx
+++ b/Lib_Repo_Excel/FileExcel_Digisales/SCD0171_Menu BNI Multifinance.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1442\Desktop\DigiSales\Lib_Repo_Excel\FileExcel_Digisales\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1427\Documents\BNI\DigiSales\Lib_Repo_Excel\FileExcel_Digisales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3DFC94A-B2DE-4EA4-8DDF-B69D7DFDE8FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AEDA3BB-8D4E-4EAD-9A5E-083181CF259C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -213,28 +213,30 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -543,8 +545,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0EAF5E5-8229-45B3-AC11-8AED029F52F4}">
   <dimension ref="A1:R7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -572,57 +574,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:18" ht="127.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="11" t="s">
         <v>20</v>
       </c>
       <c r="D2" s="10" t="s">
@@ -631,28 +633,29 @@
       <c r="E2" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="11">
+      <c r="F2" s="12">
         <v>49998</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="I2" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="K2" s="8"/>
+      <c r="L2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="M2" s="13" t="s">
+      <c r="M2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="N2" s="7"/>
+      <c r="N2" s="8"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
     </row>
